--- a/ExcelMerger/testData/test3/input/input2.xlsx
+++ b/ExcelMerger/testData/test3/input/input2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uber\git\ExcelMerger\ExcelMerger\testData\test1\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uber\git\ExcelMerger\ExcelMerger\testData\test3\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219192E5-01D2-4836-B30F-9B3F43439FFD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C041EF8B-9270-4499-915A-87A992D32469}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20820" windowHeight="10485" xr2:uid="{7819FB3F-A98A-4D9D-A27E-6ACB3BE69E81}"/>
   </bookViews>
@@ -30,10 +30,10 @@
     <t>D</t>
   </si>
   <si>
-    <t>E</t>
+    <t>F</t>
   </si>
   <si>
-    <t>F</t>
+    <t>G</t>
   </si>
 </sst>
 </file>
@@ -389,20 +389,20 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -413,7 +413,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
